--- a/biology/Zoologie/Gorille_de_l'Ouest/Gorille_de_l'Ouest.xlsx
+++ b/biology/Zoologie/Gorille_de_l'Ouest/Gorille_de_l'Ouest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gorille_de_l%27Ouest</t>
+          <t>Gorille_de_l'Ouest</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gorilla gorilla
-Le Gorille de l'Ouest[1] (Gorilla gorilla), parfois appelé simplement « Gorille »[2], est l'une des deux espèces du genre Gorilla, avec le Gorille de l'Est (Gorilla beringei). Les gorilles font partie de la famille des hominidés.
+Le Gorille de l'Ouest (Gorilla gorilla), parfois appelé simplement « Gorille », est l'une des deux espèces du genre Gorilla, avec le Gorille de l'Est (Gorilla beringei). Les gorilles font partie de la famille des hominidés.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gorille_de_l%27Ouest</t>
+          <t>Gorille_de_l'Ouest</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Gorille de l'Ouest est aussi appelé Gorille des plaines de l'Ouest[3].</t>
+Le Gorille de l'Ouest est aussi appelé Gorille des plaines de l'Ouest.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gorille_de_l%27Ouest</t>
+          <t>Gorille_de_l'Ouest</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Gorille de l'Ouest peut mesurer jusqu'à 1,7 mètre pour le mâle et 1,3 mètre pour la femelle. Il peut peser jusqu'à 180 kg pour les mâles et 70 kg pour les femelles. Les mâles peuvent atteindre les 230 kilos en captivité dès lors qu'ils sont moins actifs que dans la nature tout en étant mieux nourris.
 Le front est coloré du rouge au brun. Les canines sont plus petites, les mâchoires plus petites mais plus larges que chez le Gorille de l'Est. Ses bras sont plus longs, sa poitrine plus large, sa peau plus foncée, mais son pelage plus clair et plus court. Le pelage argenté va de la nuque jusqu'à la croupe en descendant jusqu'au poil du pied, tandis que chez le Gorille de l'Est, le pelage va des épaules jusqu'au bas du dos. Il est aussi légèrement plus petit que ses cousins de l'est [réf. nécessaire].
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gorille_de_l%27Ouest</t>
+          <t>Gorille_de_l'Ouest</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,12 +593,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentation
-Les gorilles sont essentiellement végétariens ; ils se nourrissent de feuilles, de baies, de fougères et d'écorces[4].
-Reproduction
-La femelle atteint la maturité sexuelle vers 10 ans et le mâle vers 15 ans. Le cycle menstruel de la femelle dure 28 jours. La femelle donne naissance à un seul petit après une gestation de 9 mois. Le petit pèse environ 2 kg à la naissance. Il reste dépendant de sa mère pendant 3 à 4 ans. Le père n'interagit pas beaucoup avec son petit. Il le défend néanmoins contre les autres mâles de la troupe. Le gorille de l'Ouest vit entre 35 et 40 ans dans la nature[4]. 
-Utilisation d'outils
-Le gorille des plaines de l'Ouest utilise des outils, par exemple des bâtons avec lesquels il sonde les marécages et les cours d'eau avant de les traverser.
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les gorilles sont essentiellement végétariens ; ils se nourrissent de feuilles, de baies, de fougères et d'écorces.
 </t>
         </is>
       </c>
@@ -593,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gorille_de_l%27Ouest</t>
+          <t>Gorille_de_l'Ouest</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,13 +625,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Habitat et répartition</t>
+          <t>Écologie et comportement</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le gorille de l'Ouest est présent au Cameroun, en République centrafricaine, en Guinée équatoriale, au Gabon, au Nigeria, en république du Congo et dans la province de Cabinda en Angola. L'espèce est éteinte en république démocratique du Congo. Il vit principalement dans la forêt tropicale humide dense et moite et dans les forêts marécageuses[5].
-Sa population est estimée entre 80 000 et 100 000 individus, l'immense majorité étant des gorilles des plaines de l'ouest. La population des gorilles de la rivière Cross n'excéderait pas les 200 individus vivants en liberté.
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle atteint la maturité sexuelle vers 10 ans et le mâle vers 15 ans. Le cycle menstruel de la femelle dure 28 jours. La femelle donne naissance à un seul petit après une gestation de 9 mois. Le petit pèse environ 2 kg à la naissance. Il reste dépendant de sa mère pendant 3 à 4 ans. Le père n'interagit pas beaucoup avec son petit. Il le défend néanmoins contre les autres mâles de la troupe. Le gorille de l'Ouest vit entre 35 et 40 ans dans la nature. 
 </t>
         </is>
       </c>
@@ -625,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gorille_de_l%27Ouest</t>
+          <t>Gorille_de_l'Ouest</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,16 +662,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Classification</t>
+          <t>Écologie et comportement</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Phylogénie des espèces actuelles d'hominidés, d'après Shoshani et al. (1996)[6] et Springer et al. (2012)[7] :
-Sous-espèces
-Le Gorille de l'Ouest compte deux sous-espèces :
-le Gorille des plaines de l'ouest (Gorilla gorilla gorilla),
-le Gorille de la rivière Cross (Gorilla gorilla diehli).</t>
+          <t>Utilisation d'outils</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gorille des plaines de l'Ouest utilise des outils, par exemple des bâtons avec lesquels il sonde les marécages et les cours d'eau avant de les traverser.
+</t>
         </is>
       </c>
     </row>
@@ -659,7 +684,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gorille_de_l%27Ouest</t>
+          <t>Gorille_de_l'Ouest</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -674,10 +699,117 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gorille de l'Ouest est présent au Cameroun, en République centrafricaine, en Guinée équatoriale, au Gabon, au Nigeria, en république du Congo et dans la province de Cabinda en Angola. L'espèce est éteinte en république démocratique du Congo. Il vit principalement dans la forêt tropicale humide dense et moite et dans les forêts marécageuses.
+Sa population est estimée entre 80 000 et 100 000 individus, l'immense majorité étant des gorilles des plaines de l'ouest. La population des gorilles de la rivière Cross n'excéderait pas les 200 individus vivants en liberté.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gorille_de_l'Ouest</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gorille_de_l%27Ouest</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des espèces actuelles d'hominidés, d'après Shoshani et al. (1996) et Springer et al. (2012) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gorille_de_l'Ouest</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gorille_de_l%27Ouest</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Le Gorille de l'Ouest compte deux sous-espèces :
+le Gorille des plaines de l'ouest (Gorilla gorilla gorilla),
+le Gorille de la rivière Cross (Gorilla gorilla diehli).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Gorille_de_l'Ouest</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gorille_de_l%27Ouest</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Du fait de menaces diverses, soit du virus Ebola, soit des activités humaines (pertes d'habitat, agriculture, exploitation de mines, braconnage) les populations de gorilles ont décliné de 50 % (entre 1980 et 2008), pour passer de 100 000 à 50 000. Des estimations ont prévu que 80 % des gorilles disparaîtraient en 3 générations (de 1980 à 2046).
 </t>
